--- a/natmiOut/OldD4/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.17278401833956</v>
+        <v>0.251116</v>
       </c>
       <c r="H2">
-        <v>3.17278401833956</v>
+        <v>0.753348</v>
       </c>
       <c r="I2">
-        <v>0.4041743848273772</v>
+        <v>0.02499663796234737</v>
       </c>
       <c r="J2">
-        <v>0.4041743848273772</v>
+        <v>0.03089608058175258</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.81616467224719</v>
+        <v>3.187172</v>
       </c>
       <c r="N2">
-        <v>2.81616467224719</v>
+        <v>9.561516000000001</v>
       </c>
       <c r="O2">
-        <v>0.1273652677638085</v>
+        <v>0.1363537060697748</v>
       </c>
       <c r="P2">
-        <v>0.1273652677638085</v>
+        <v>0.141928285537828</v>
       </c>
       <c r="Q2">
-        <v>8.93508226511835</v>
+        <v>0.8003498839520001</v>
       </c>
       <c r="R2">
-        <v>8.93508226511835</v>
+        <v>7.203148955568001</v>
       </c>
       <c r="S2">
-        <v>0.05147777874681148</v>
+        <v>0.003408384225450487</v>
       </c>
       <c r="T2">
-        <v>0.05147777874681148</v>
+        <v>0.004385027746806724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.17278401833956</v>
+        <v>0.251116</v>
       </c>
       <c r="H3">
-        <v>3.17278401833956</v>
+        <v>0.753348</v>
       </c>
       <c r="I3">
-        <v>0.4041743848273772</v>
+        <v>0.02499663796234737</v>
       </c>
       <c r="J3">
-        <v>0.4041743848273772</v>
+        <v>0.03089608058175258</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.57953860856126</v>
+        <v>8.001835333333334</v>
       </c>
       <c r="N3">
-        <v>7.57953860856126</v>
+        <v>24.005506</v>
       </c>
       <c r="O3">
-        <v>0.3427959926914366</v>
+        <v>0.3423348043532233</v>
       </c>
       <c r="P3">
-        <v>0.3427959926914366</v>
+        <v>0.3563305557453487</v>
       </c>
       <c r="Q3">
-        <v>24.04823896363083</v>
+        <v>2.009388881565334</v>
       </c>
       <c r="R3">
-        <v>24.04823896363083</v>
+        <v>18.084499934088</v>
       </c>
       <c r="S3">
-        <v>0.1385493594673514</v>
+        <v>0.008557219166328543</v>
       </c>
       <c r="T3">
-        <v>0.1385493594673514</v>
+        <v>0.01100921756404897</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.17278401833956</v>
+        <v>0.251116</v>
       </c>
       <c r="H4">
-        <v>3.17278401833956</v>
+        <v>0.753348</v>
       </c>
       <c r="I4">
-        <v>0.4041743848273772</v>
+        <v>0.02499663796234737</v>
       </c>
       <c r="J4">
-        <v>0.4041743848273772</v>
+        <v>0.03089608058175258</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.71609596810006</v>
+        <v>4.084306000000001</v>
       </c>
       <c r="N4">
-        <v>3.71609596810006</v>
+        <v>12.252918</v>
       </c>
       <c r="O4">
-        <v>0.1680660093059818</v>
+        <v>0.1747349248245835</v>
       </c>
       <c r="P4">
-        <v>0.1680660093059818</v>
+        <v>0.1818786523575961</v>
       </c>
       <c r="Q4">
-        <v>11.79036989820395</v>
+        <v>1.025634585496</v>
       </c>
       <c r="R4">
-        <v>11.79036989820395</v>
+        <v>9.230711269464001</v>
       </c>
       <c r="S4">
-        <v>0.06792797592163743</v>
+        <v>0.004367785655218098</v>
       </c>
       <c r="T4">
-        <v>0.06792797592163743</v>
+        <v>0.005619337499340852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.17278401833956</v>
+        <v>0.251116</v>
       </c>
       <c r="H5">
-        <v>3.17278401833956</v>
+        <v>0.753348</v>
       </c>
       <c r="I5">
-        <v>0.4041743848273772</v>
+        <v>0.02499663796234737</v>
       </c>
       <c r="J5">
-        <v>0.4041743848273772</v>
+        <v>0.03089608058175258</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.24631863169792</v>
+        <v>5.346736</v>
       </c>
       <c r="N5">
-        <v>5.24631863169792</v>
+        <v>16.040208</v>
       </c>
       <c r="O5">
-        <v>0.237272622544216</v>
+        <v>0.2287442500676723</v>
       </c>
       <c r="P5">
-        <v>0.237272622544216</v>
+        <v>0.2380960530851126</v>
       </c>
       <c r="Q5">
-        <v>16.64543590976823</v>
+        <v>1.342650957376</v>
       </c>
       <c r="R5">
-        <v>16.64543590976823</v>
+        <v>12.083858616384</v>
       </c>
       <c r="S5">
-        <v>0.09589951625318695</v>
+        <v>0.005717837204910257</v>
       </c>
       <c r="T5">
-        <v>0.09589951625318695</v>
+        <v>0.007356234842314877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>3.17278401833956</v>
+        <v>0.251116</v>
       </c>
       <c r="H6">
-        <v>3.17278401833956</v>
+        <v>0.753348</v>
       </c>
       <c r="I6">
-        <v>0.4041743848273772</v>
+        <v>0.02499663796234737</v>
       </c>
       <c r="J6">
-        <v>0.4041743848273772</v>
+        <v>0.03089608058175258</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.75281331509131</v>
+        <v>2.7542475</v>
       </c>
       <c r="N6">
-        <v>2.75281331509131</v>
+        <v>5.508495</v>
       </c>
       <c r="O6">
-        <v>0.1245001076945571</v>
+        <v>0.1178323146847462</v>
       </c>
       <c r="P6">
-        <v>0.1245001076945571</v>
+        <v>0.08176645327411448</v>
       </c>
       <c r="Q6">
-        <v>8.734082091594052</v>
+        <v>0.6916356152100001</v>
       </c>
       <c r="R6">
-        <v>8.734082091594052</v>
+        <v>4.14981369126</v>
       </c>
       <c r="S6">
-        <v>0.0503197544383898</v>
+        <v>0.002945411710439989</v>
       </c>
       <c r="T6">
-        <v>0.0503197544383898</v>
+        <v>0.002526262929241148</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.67725333544934</v>
+        <v>3.739612</v>
       </c>
       <c r="H7">
-        <v>4.67725333544934</v>
+        <v>11.218836</v>
       </c>
       <c r="I7">
-        <v>0.5958256151726229</v>
+        <v>0.3722491887559923</v>
       </c>
       <c r="J7">
-        <v>0.5958256151726229</v>
+        <v>0.4601035127052395</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.81616467224719</v>
+        <v>3.187172</v>
       </c>
       <c r="N7">
-        <v>2.81616467224719</v>
+        <v>9.561516000000001</v>
       </c>
       <c r="O7">
-        <v>0.1273652677638085</v>
+        <v>0.1363537060697748</v>
       </c>
       <c r="P7">
-        <v>0.1273652677638085</v>
+        <v>0.141928285537828</v>
       </c>
       <c r="Q7">
-        <v>13.17191560644277</v>
+        <v>11.918786657264</v>
       </c>
       <c r="R7">
-        <v>13.17191560644277</v>
+        <v>107.269079915376</v>
       </c>
       <c r="S7">
-        <v>0.07588748901699705</v>
+        <v>0.05075755646834668</v>
       </c>
       <c r="T7">
-        <v>0.07588748901699705</v>
+        <v>0.06530170272818692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.67725333544934</v>
+        <v>3.739612</v>
       </c>
       <c r="H8">
-        <v>4.67725333544934</v>
+        <v>11.218836</v>
       </c>
       <c r="I8">
-        <v>0.5958256151726229</v>
+        <v>0.3722491887559923</v>
       </c>
       <c r="J8">
-        <v>0.5958256151726229</v>
+        <v>0.4601035127052395</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.57953860856126</v>
+        <v>8.001835333333334</v>
       </c>
       <c r="N8">
-        <v>7.57953860856126</v>
+        <v>24.005506</v>
       </c>
       <c r="O8">
-        <v>0.3427959926914366</v>
+        <v>0.3423348043532233</v>
       </c>
       <c r="P8">
-        <v>0.3427959926914366</v>
+        <v>0.3563305557453487</v>
       </c>
       <c r="Q8">
-        <v>35.4514222380602</v>
+        <v>29.92375943455733</v>
       </c>
       <c r="R8">
-        <v>35.4514222380602</v>
+        <v>269.313834911016</v>
       </c>
       <c r="S8">
-        <v>0.2042466332240851</v>
+        <v>0.1274338532034287</v>
       </c>
       <c r="T8">
-        <v>0.2042466332240851</v>
+        <v>0.1639489403826451</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.67725333544934</v>
+        <v>3.739612</v>
       </c>
       <c r="H9">
-        <v>4.67725333544934</v>
+        <v>11.218836</v>
       </c>
       <c r="I9">
-        <v>0.5958256151726229</v>
+        <v>0.3722491887559923</v>
       </c>
       <c r="J9">
-        <v>0.5958256151726229</v>
+        <v>0.4601035127052395</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.71609596810006</v>
+        <v>4.084306000000001</v>
       </c>
       <c r="N9">
-        <v>3.71609596810006</v>
+        <v>12.252918</v>
       </c>
       <c r="O9">
-        <v>0.1680660093059818</v>
+        <v>0.1747349248245835</v>
       </c>
       <c r="P9">
-        <v>0.1680660093059818</v>
+        <v>0.1818786523575961</v>
       </c>
       <c r="Q9">
-        <v>17.38112226164585</v>
+        <v>15.273719729272</v>
       </c>
       <c r="R9">
-        <v>17.38112226164585</v>
+        <v>137.463477563448</v>
       </c>
       <c r="S9">
-        <v>0.1001380333843444</v>
+        <v>0.06504493401329052</v>
       </c>
       <c r="T9">
-        <v>0.1001380333843444</v>
+        <v>0.08368300683582505</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.67725333544934</v>
+        <v>3.739612</v>
       </c>
       <c r="H10">
-        <v>4.67725333544934</v>
+        <v>11.218836</v>
       </c>
       <c r="I10">
-        <v>0.5958256151726229</v>
+        <v>0.3722491887559923</v>
       </c>
       <c r="J10">
-        <v>0.5958256151726229</v>
+        <v>0.4601035127052395</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.24631863169792</v>
+        <v>5.346736</v>
       </c>
       <c r="N10">
-        <v>5.24631863169792</v>
+        <v>16.040208</v>
       </c>
       <c r="O10">
-        <v>0.237272622544216</v>
+        <v>0.2287442500676723</v>
       </c>
       <c r="P10">
-        <v>0.237272622544216</v>
+        <v>0.2380960530851126</v>
       </c>
       <c r="Q10">
-        <v>24.53836131893911</v>
+        <v>19.994718106432</v>
       </c>
       <c r="R10">
-        <v>24.53836131893911</v>
+        <v>179.952462957888</v>
       </c>
       <c r="S10">
-        <v>0.141373106291029</v>
+        <v>0.08514986152028885</v>
       </c>
       <c r="T10">
-        <v>0.141373106291029</v>
+        <v>0.1095488303857135</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.739612</v>
+      </c>
+      <c r="H11">
+        <v>11.218836</v>
+      </c>
+      <c r="I11">
+        <v>0.3722491887559923</v>
+      </c>
+      <c r="J11">
+        <v>0.4601035127052395</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.7542475</v>
+      </c>
+      <c r="N11">
+        <v>5.508495</v>
+      </c>
+      <c r="O11">
+        <v>0.1178323146847462</v>
+      </c>
+      <c r="P11">
+        <v>0.08176645327411448</v>
+      </c>
+      <c r="Q11">
+        <v>10.29981700197</v>
+      </c>
+      <c r="R11">
+        <v>61.79890201182</v>
+      </c>
+      <c r="S11">
+        <v>0.04386298355063758</v>
+      </c>
+      <c r="T11">
+        <v>0.0376210323728689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04240566666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.127217</v>
+      </c>
+      <c r="I12">
+        <v>0.004221153161163162</v>
+      </c>
+      <c r="J12">
+        <v>0.005217385170424316</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.187172</v>
+      </c>
+      <c r="N12">
+        <v>9.561516000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.1363537060697748</v>
+      </c>
+      <c r="P12">
+        <v>0.141928285537828</v>
+      </c>
+      <c r="Q12">
+        <v>0.1351541534413334</v>
+      </c>
+      <c r="R12">
+        <v>1.216387380972</v>
+      </c>
+      <c r="S12">
+        <v>0.0005755698774127423</v>
+      </c>
+      <c r="T12">
+        <v>0.000740494532228812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04240566666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.127217</v>
+      </c>
+      <c r="I13">
+        <v>0.004221153161163162</v>
+      </c>
+      <c r="J13">
+        <v>0.005217385170424316</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.001835333333334</v>
+      </c>
+      <c r="N13">
+        <v>24.005506</v>
+      </c>
+      <c r="O13">
+        <v>0.3423348043532233</v>
+      </c>
+      <c r="P13">
+        <v>0.3563305557453487</v>
+      </c>
+      <c r="Q13">
+        <v>0.3393231618668889</v>
+      </c>
+      <c r="R13">
+        <v>3.053908456802</v>
+      </c>
+      <c r="S13">
+        <v>0.001445047641571781</v>
+      </c>
+      <c r="T13">
+        <v>0.001859113757314837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.04240566666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.127217</v>
+      </c>
+      <c r="I14">
+        <v>0.004221153161163162</v>
+      </c>
+      <c r="J14">
+        <v>0.005217385170424316</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.084306000000001</v>
+      </c>
+      <c r="N14">
+        <v>12.252918</v>
+      </c>
+      <c r="O14">
+        <v>0.1747349248245835</v>
+      </c>
+      <c r="P14">
+        <v>0.1818786523575961</v>
+      </c>
+      <c r="Q14">
+        <v>0.1731977188006667</v>
+      </c>
+      <c r="R14">
+        <v>1.558779469206</v>
+      </c>
+      <c r="S14">
+        <v>0.0007375828802888982</v>
+      </c>
+      <c r="T14">
+        <v>0.0009489309836272814</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.04240566666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.127217</v>
+      </c>
+      <c r="I15">
+        <v>0.004221153161163162</v>
+      </c>
+      <c r="J15">
+        <v>0.005217385170424316</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.346736</v>
+      </c>
+      <c r="N15">
+        <v>16.040208</v>
+      </c>
+      <c r="O15">
+        <v>0.2287442500676723</v>
+      </c>
+      <c r="P15">
+        <v>0.2380960530851126</v>
+      </c>
+      <c r="Q15">
+        <v>0.2267319045706667</v>
+      </c>
+      <c r="R15">
+        <v>2.040587141136</v>
+      </c>
+      <c r="S15">
+        <v>0.0009655645142710516</v>
+      </c>
+      <c r="T15">
+        <v>0.001242238816502827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04240566666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.127217</v>
+      </c>
+      <c r="I16">
+        <v>0.004221153161163162</v>
+      </c>
+      <c r="J16">
+        <v>0.005217385170424316</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.7542475</v>
+      </c>
+      <c r="N16">
+        <v>5.508495</v>
+      </c>
+      <c r="O16">
+        <v>0.1178323146847462</v>
+      </c>
+      <c r="P16">
+        <v>0.08176645327411448</v>
+      </c>
+      <c r="Q16">
+        <v>0.1167957014025</v>
+      </c>
+      <c r="R16">
+        <v>0.7007742084149999</v>
+      </c>
+      <c r="S16">
+        <v>0.000497388247618689</v>
+      </c>
+      <c r="T16">
+        <v>0.0004266070807505577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.2581713333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.774514</v>
+      </c>
+      <c r="I17">
+        <v>0.02569894133225218</v>
+      </c>
+      <c r="J17">
+        <v>0.03176413417928436</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.187172</v>
+      </c>
+      <c r="N17">
+        <v>9.561516000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.1363537060697748</v>
+      </c>
+      <c r="P17">
+        <v>0.141928285537828</v>
+      </c>
+      <c r="Q17">
+        <v>0.8228364448026668</v>
+      </c>
+      <c r="R17">
+        <v>7.405528003224001</v>
+      </c>
+      <c r="S17">
+        <v>0.003504145892722299</v>
+      </c>
+      <c r="T17">
+        <v>0.004508229105659354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>4.67725333544934</v>
-      </c>
-      <c r="H11">
-        <v>4.67725333544934</v>
-      </c>
-      <c r="I11">
-        <v>0.5958256151726229</v>
-      </c>
-      <c r="J11">
-        <v>0.5958256151726229</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.75281331509131</v>
-      </c>
-      <c r="N11">
-        <v>2.75281331509131</v>
-      </c>
-      <c r="O11">
-        <v>0.1245001076945571</v>
-      </c>
-      <c r="P11">
-        <v>0.1245001076945571</v>
-      </c>
-      <c r="Q11">
-        <v>12.87560525988019</v>
-      </c>
-      <c r="R11">
-        <v>12.87560525988019</v>
-      </c>
-      <c r="S11">
-        <v>0.07418035325616726</v>
-      </c>
-      <c r="T11">
-        <v>0.07418035325616726</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.2581713333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.774514</v>
+      </c>
+      <c r="I18">
+        <v>0.02569894133225218</v>
+      </c>
+      <c r="J18">
+        <v>0.03176413417928436</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.001835333333334</v>
+      </c>
+      <c r="N18">
+        <v>24.005506</v>
+      </c>
+      <c r="O18">
+        <v>0.3423348043532233</v>
+      </c>
+      <c r="P18">
+        <v>0.3563305557453487</v>
+      </c>
+      <c r="Q18">
+        <v>2.065844497120445</v>
+      </c>
+      <c r="R18">
+        <v>18.592600474084</v>
+      </c>
+      <c r="S18">
+        <v>0.008797642053061513</v>
+      </c>
+      <c r="T18">
+        <v>0.01131853158487422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.2581713333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.774514</v>
+      </c>
+      <c r="I19">
+        <v>0.02569894133225218</v>
+      </c>
+      <c r="J19">
+        <v>0.03176413417928436</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.084306000000001</v>
+      </c>
+      <c r="N19">
+        <v>12.252918</v>
+      </c>
+      <c r="O19">
+        <v>0.1747349248245835</v>
+      </c>
+      <c r="P19">
+        <v>0.1818786523575961</v>
+      </c>
+      <c r="Q19">
+        <v>1.054450725761334</v>
+      </c>
+      <c r="R19">
+        <v>9.490056531852002</v>
+      </c>
+      <c r="S19">
+        <v>0.004490502581762467</v>
+      </c>
+      <c r="T19">
+        <v>0.005777217917834097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.2581713333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.774514</v>
+      </c>
+      <c r="I20">
+        <v>0.02569894133225218</v>
+      </c>
+      <c r="J20">
+        <v>0.03176413417928436</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.346736</v>
+      </c>
+      <c r="N20">
+        <v>16.040208</v>
+      </c>
+      <c r="O20">
+        <v>0.2287442500676723</v>
+      </c>
+      <c r="P20">
+        <v>0.2380960530851126</v>
+      </c>
+      <c r="Q20">
+        <v>1.380373962101334</v>
+      </c>
+      <c r="R20">
+        <v>12.423365658912</v>
+      </c>
+      <c r="S20">
+        <v>0.00587848506257913</v>
+      </c>
+      <c r="T20">
+        <v>0.007562914977753529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.2581713333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.774514</v>
+      </c>
+      <c r="I21">
+        <v>0.02569894133225218</v>
+      </c>
+      <c r="J21">
+        <v>0.03176413417928436</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.7542475</v>
+      </c>
+      <c r="N21">
+        <v>5.508495</v>
+      </c>
+      <c r="O21">
+        <v>0.1178323146847462</v>
+      </c>
+      <c r="P21">
+        <v>0.08176645327411448</v>
+      </c>
+      <c r="Q21">
+        <v>0.7110677494050001</v>
+      </c>
+      <c r="R21">
+        <v>4.26640649643</v>
+      </c>
+      <c r="S21">
+        <v>0.00302816574212677</v>
+      </c>
+      <c r="T21">
+        <v>0.002597240593163158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.754686</v>
+      </c>
+      <c r="H22">
+        <v>11.509372</v>
+      </c>
+      <c r="I22">
+        <v>0.572834078788245</v>
+      </c>
+      <c r="J22">
+        <v>0.4720188873632993</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.187172</v>
+      </c>
+      <c r="N22">
+        <v>9.561516000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.1363537060697748</v>
+      </c>
+      <c r="P22">
+        <v>0.141928285537828</v>
+      </c>
+      <c r="Q22">
+        <v>18.341174087992</v>
+      </c>
+      <c r="R22">
+        <v>110.047044527952</v>
+      </c>
+      <c r="S22">
+        <v>0.07810804960584256</v>
+      </c>
+      <c r="T22">
+        <v>0.06699283142494623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.754686</v>
+      </c>
+      <c r="H23">
+        <v>11.509372</v>
+      </c>
+      <c r="I23">
+        <v>0.572834078788245</v>
+      </c>
+      <c r="J23">
+        <v>0.4720188873632993</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.001835333333334</v>
+      </c>
+      <c r="N23">
+        <v>24.005506</v>
+      </c>
+      <c r="O23">
+        <v>0.3423348043532233</v>
+      </c>
+      <c r="P23">
+        <v>0.3563305557453487</v>
+      </c>
+      <c r="Q23">
+        <v>46.04804976703867</v>
+      </c>
+      <c r="R23">
+        <v>276.288298602232</v>
+      </c>
+      <c r="S23">
+        <v>0.1961010422888328</v>
+      </c>
+      <c r="T23">
+        <v>0.1681947524564656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.754686</v>
+      </c>
+      <c r="H24">
+        <v>11.509372</v>
+      </c>
+      <c r="I24">
+        <v>0.572834078788245</v>
+      </c>
+      <c r="J24">
+        <v>0.4720188873632993</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.084306000000001</v>
+      </c>
+      <c r="N24">
+        <v>12.252918</v>
+      </c>
+      <c r="O24">
+        <v>0.1747349248245835</v>
+      </c>
+      <c r="P24">
+        <v>0.1818786523575961</v>
+      </c>
+      <c r="Q24">
+        <v>23.503898557916</v>
+      </c>
+      <c r="R24">
+        <v>141.023391347496</v>
+      </c>
+      <c r="S24">
+        <v>0.1000941196940235</v>
+      </c>
+      <c r="T24">
+        <v>0.08585015912096881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.754686</v>
+      </c>
+      <c r="H25">
+        <v>11.509372</v>
+      </c>
+      <c r="I25">
+        <v>0.572834078788245</v>
+      </c>
+      <c r="J25">
+        <v>0.4720188873632993</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.346736</v>
+      </c>
+      <c r="N25">
+        <v>16.040208</v>
+      </c>
+      <c r="O25">
+        <v>0.2287442500676723</v>
+      </c>
+      <c r="P25">
+        <v>0.2380960530851126</v>
+      </c>
+      <c r="Q25">
+        <v>30.768786804896</v>
+      </c>
+      <c r="R25">
+        <v>184.612720829376</v>
+      </c>
+      <c r="S25">
+        <v>0.131032501765623</v>
+      </c>
+      <c r="T25">
+        <v>0.1123858340628279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.754686</v>
+      </c>
+      <c r="H26">
+        <v>11.509372</v>
+      </c>
+      <c r="I26">
+        <v>0.572834078788245</v>
+      </c>
+      <c r="J26">
+        <v>0.4720188873632993</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.7542475</v>
+      </c>
+      <c r="N26">
+        <v>5.508495</v>
+      </c>
+      <c r="O26">
+        <v>0.1178323146847462</v>
+      </c>
+      <c r="P26">
+        <v>0.08176645327411448</v>
+      </c>
+      <c r="Q26">
+        <v>15.849829528785</v>
+      </c>
+      <c r="R26">
+        <v>63.39931811513999</v>
+      </c>
+      <c r="S26">
+        <v>0.06749836543392319</v>
+      </c>
+      <c r="T26">
+        <v>0.03859531029809072</v>
       </c>
     </row>
   </sheetData>
